--- a/outputs/section.xlsx
+++ b/outputs/section.xlsx
@@ -517,12 +517,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[-0.5533478400000001, 8, -0.5533478400000001]</t>
+          <t>[-0.4240492799999998, 8, -0.4240492799999998]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.007214506666666676, 8.0192]</t>
+          <t>[0.12208405333333366, 8.0192]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[-0.5533478400000001, 8, -0.5533478400000001]</t>
+          <t>[-0.4240492799999998, 8, -0.4240492799999998]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-0.007214506666666676, 8.0192]</t>
+          <t>[0.12208405333333366, 8.0192]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[-1.9658423999999997, 8, -1.9658423999999997]</t>
+          <t>[-1.8850307999999993, 8, -1.8850307999999993]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-1.9575090666666664, 8.192]</t>
+          <t>[-1.876697466666666, 8.192]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -655,12 +655,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.83649456, 8, 0.83649456]</t>
+          <t>[0.8849815200000002, 8, 0.8849815200000002]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0.83829456, 8.1152]</t>
+          <t>[0.8867815200000002, 8.1152]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.3339354600000001, 8, 0.3339354600000001]</t>
+          <t>[0.3521180700000001, 8, 0.3521180700000001]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.33410421000000007, 8.0243]</t>
+          <t>[0.3522868200000001, 8.0243]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.3339354600000001, 8, 0.3339354600000001]</t>
+          <t>[0.3521180700000001, 8, 0.3521180700000001]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.33410421000000007, 8.0243]</t>
+          <t>[0.3522868200000001, 8.0243]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.26312364, 8, 0.26312364]</t>
+          <t>[0.27524538, 8, 0.27524538]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.26357364, 8.0018]</t>
+          <t>[0.27569538, 8.0018]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -839,12 +839,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.26312364, 8, 0.26312364]</t>
+          <t>[0.27524538, 8, 0.27524538]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[0.26357364, 8.0018]</t>
+          <t>[0.27569538, 8.0018]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -871,26 +871,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[2.6, 6.4]</t>
+          <t>[2.9, 6.45]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.0013499999999999999, 0.048600000000000004]</t>
+          <t>[0.00405, 0.1458]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.5463709200000004, 8, 0.5463709200000004]</t>
+          <t>[0.3048680700000002, 8, 0.3048680700000002]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.5477209200000004, 8.0486]</t>
+          <t>[0.3089180700000002, 8.1458]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -917,26 +917,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[8.0, 6.4]</t>
+          <t>[7.7, 6.45]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.0013499999999999999, 0.048600000000000004]</t>
+          <t>[0.00405, 0.1458]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.5463709200000004, 8, 0.5463709200000004]</t>
+          <t>[0.3048680700000002, 8, 0.3048680700000002]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.5477209200000004, 8.0486]</t>
+          <t>[0.3089180700000002, 8.1458]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -963,26 +963,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.0675</v>
+        <v>0.03375</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[4.325, 6.325]</t>
+          <t>[4.25, 6.35]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[4.2187499999999995e-05, 0.00037968750000000003]</t>
+          <t>[0.0001265625, 0.0011390625]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.06323386500000004, 8, 0.06323386500000004]</t>
+          <t>[0.03473350875, 8, 0.03473350875]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.06327605250000004, 8.0003796875]</t>
+          <t>[0.034860071250000006, 8.0011390625]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1009,26 +1009,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.0675</v>
+        <v>0.03375</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[6.275, 6.325]</t>
+          <t>[6.35, 6.35]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[4.2187499999999995e-05, 0.00037968750000000003]</t>
+          <t>[0.0001265625, 0.0011390625]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.06323386500000004, 8, 0.06323386500000004]</t>
+          <t>[0.03473350875, 8, 0.03473350875]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.06327605250000004, 8.0003796875]</t>
+          <t>[0.034860071250000006, 8.0011390625]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1055,26 +1055,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.0675</v>
+        <v>0.03375</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[4.325, 4.075]</t>
+          <t>[4.25, 4.05]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[4.2187499999999995e-05, 0.00037968750000000003]</t>
+          <t>[0.0001265625, 0.0011390625]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>[-0.08864113499999997, 8, -0.08864113499999997]</t>
+          <t>[-0.04289149125, 8, -0.04289149125]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.08859894749999997, 8.0003796875]</t>
+          <t>[-0.04276492874999999, 8.0011390625]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1101,26 +1101,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.0675</v>
+        <v>0.03375</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[6.275, 4.075]</t>
+          <t>[6.35, 4.05]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[4.2187499999999995e-05, 0.00037968750000000003]</t>
+          <t>[0.0001265625, 0.0011390625]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[-0.08864113499999997, 8, -0.08864113499999997]</t>
+          <t>[-0.04289149125, 8, -0.04289149125]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.08859894749999997, 8.0003796875]</t>
+          <t>[-0.04276492874999999, 8.0011390625]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">

--- a/outputs/section.xlsx
+++ b/outputs/section.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,6 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>I+Ah2</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>Object Type</t>
         </is>
       </c>
@@ -512,20 +507,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.5461333333333335, 0.0192]</t>
+          <t>[1.6384, 0.0576]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[-0.4240492799999998, 8, -0.4240492799999998]</t>
+          <t>[0.045268, 4.32]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>[0.12208405333333366, 8.0192]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>rectangle</t>
         </is>
@@ -558,20 +548,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.5461333333333335, 0.0192]</t>
+          <t>[1.6384, 0.0576]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[-0.4240492799999998, 8, -0.4240492799999998]</t>
+          <t>[0.045268, 4.32]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>[0.12208405333333366, 8.0192]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>rectangle</t>
         </is>
@@ -604,20 +589,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.008333333333333333, 0.19199999999999998]</t>
+          <t>[0.025, 0.576]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[-1.8850307999999993, 8, -1.8850307999999993]</t>
+          <t>[2.712788, 0.0]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>[-1.876697466666666, 8.192]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>rectangle</t>
         </is>
@@ -650,20 +630,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.0017999999999999995, 0.11519999999999997]</t>
+          <t>[0.0054, 0.3456]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[0.8849815200000002, 8, 0.8849815200000002]</t>
+          <t>[1.210167, 0.0]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>[0.8867815200000002, 8.1152]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>rectangle</t>
         </is>
@@ -696,20 +671,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.00016874999999999998, 0.024300000000000002]</t>
+          <t>[0.0005, 0.0729]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.3521180700000001, 8, 0.3521180700000001]</t>
+          <t>[0.507838, 1.9683]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>[0.3522868200000001, 8.0243]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>rectangle</t>
         </is>
@@ -742,20 +712,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.00016874999999999998, 0.024300000000000002]</t>
+          <t>[0.0005, 0.0729]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.3521180700000001, 8, 0.3521180700000001]</t>
+          <t>[0.507838, 1.9683]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>[0.3522868200000001, 8.0243]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>rectangle</t>
         </is>
@@ -764,191 +729,171 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>left kerb</t>
+          <t>left triangle</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="C8" t="n">
         <v>0.3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1.7, 6.7]</t>
+          <t>[1.7, 6.4]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[2.0, 6.85]</t>
+          <t>[2.9, 6.6]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.0004499999999999999, 0.0017999999999999995]</t>
+          <t>[0.0013, 0.0486]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.27524538, 8, 0.27524538]</t>
+          <t>[0.489492, 1.5552]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.27569538, 8.0018]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>rectangle</t>
+          <t>triangle_1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>right kerb</t>
+          <t>right triangle</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="C9" t="n">
         <v>0.3</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[8.3, 6.7]</t>
+          <t>[7.1, 6.4]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[8.6, 6.85]</t>
+          <t>[7.7, 6.6]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.0004499999999999999, 0.0017999999999999995]</t>
+          <t>[0.0013, 0.0486]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.27524538, 8, 0.27524538]</t>
+          <t>[0.489492, 1.5552]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[0.27569538, 8.0018]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>rectangle</t>
+          <t>triangle_3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>left triangle</t>
+          <t>left top fillet</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.8</v>
+        <v>0.45</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[1.7, 6.25]</t>
+          <t>[4.1, 6.25]</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.27</v>
+        <v>0.03375</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[2.9, 6.45]</t>
+          <t>[4.25, 6.35]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.00405, 0.1458]</t>
+          <t>[0.0, 0.0004]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.3048680700000002, 8, 0.3048680700000002]</t>
+          <t>[0.040574, 0.037209]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.3089180700000002, 8.1458]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>triangle_1</t>
+          <t>triangle_3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>right triangle</t>
+          <t>right top fillet</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.8</v>
+        <v>0.45</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[7.1, 6.25]</t>
+          <t>[6.05, 6.25]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>0.03375</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[7.7, 6.45]</t>
+          <t>[6.35, 6.35]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.00405, 0.1458]</t>
+          <t>[0.0, 0.0004]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.3048680700000002, 8, 0.3048680700000002]</t>
+          <t>[0.040574, 0.037209]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.3089180700000002, 8.1458]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>triangle_3</t>
+          <t>triangle_1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>left top fillet</t>
+          <t>left bottom fillet</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -959,7 +904,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[4.1, 6.25]</t>
+          <t>[4.1, 4.0]</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -967,34 +912,29 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[4.25, 6.35]</t>
+          <t>[4.25, 4.05]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.0001265625, 0.0011390625]</t>
+          <t>[0.0, 0.0004]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.03473350875, 8, 0.03473350875]</t>
+          <t>[0.048888, 0.037209]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.034860071250000006, 8.0011390625]</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>triangle_3</t>
+          <t>triangle_2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>right top fillet</t>
+          <t>right bottom fillet</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1005,7 +945,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[6.05, 6.25]</t>
+          <t>[6.05, 4.0]</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1013,117 +953,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[6.35, 6.35]</t>
+          <t>[6.35, 4.05]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.0001265625, 0.0011390625]</t>
+          <t>[0.0, 0.0004]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.03473350875, 8, 0.03473350875]</t>
+          <t>[0.048888, 0.037209]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>[0.034860071250000006, 8.0011390625]</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>triangle_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>left bottom fillet</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[4.1, 4.0]</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.03375</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[4.25, 4.05]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>[0.0001265625, 0.0011390625]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>[-0.04289149125, 8, -0.04289149125]</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[-0.04276492874999999, 8.0011390625]</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>triangle_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>right bottom fillet</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[6.05, 4.0]</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0.03375</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[6.35, 4.05]</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>[0.0001265625, 0.0011390625]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>[-0.04289149125, 8, -0.04289149125]</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[-0.04276492874999999, 8.0011390625]</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t>triangle_4</t>
         </is>

--- a/outputs/section.xlsx
+++ b/outputs/section.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.045268, 4.32]</t>
+          <t>[0.038679, 4.32]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[0.045268, 4.32]</t>
+          <t>[0.038679, 4.32]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>[2.712788, 0.0]</t>
+          <t>[2.671044, 0.0]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[1.210167, 0.0]</t>
+          <t>[1.231945, 0.0]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>[0.507838, 1.9683]</t>
+          <t>[0.516475, 1.9683]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[0.507838, 1.9683]</t>
+          <t>[0.516475, 1.9683]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1.7, 6.4]</t>
+          <t>[1.7, 6.25]</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[2.9, 6.6]</t>
+          <t>[2.9, 6.45]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[0.489492, 1.5552]</t>
+          <t>[0.394044, 1.5552]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[7.1, 6.4]</t>
+          <t>[7.1, 6.25]</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[7.7, 6.6]</t>
+          <t>[7.7, 6.45]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.489492, 1.5552]</t>
+          <t>[0.394044, 1.5552]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>[0.040574, 0.037209]</t>
+          <t>[0.041439, 0.037209]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[0.040574, 0.037209]</t>
+          <t>[0.041439, 0.037209]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>[0.048888, 0.037209]</t>
+          <t>[0.047949, 0.037209]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.048888, 0.037209]</t>
+          <t>[0.047949, 0.037209]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
